--- a/words list - Copy.xlsx
+++ b/words list - Copy.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Swiss Beauty Image Classification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Office\Python\Swiss Beauty Product Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BA604B-C123-427F-9AE0-9BD019E2E39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE8072C-C163-4C9C-B379-B78089C615E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>cleansing active</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>brighteningcream</t>
+  </si>
+  <si>
+    <t>exfoliqting</t>
   </si>
 </sst>
 </file>
@@ -632,20 +635,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -653,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -669,7 +671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -677,7 +679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -685,7 +687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -693,7 +695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -701,7 +703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -709,7 +711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -717,7 +719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -725,7 +727,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -733,7 +735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -741,7 +743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -749,7 +751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -757,7 +759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -765,286 +767,288 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>57</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>43</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>44</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>45</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>47</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>49</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>50</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>51</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>54</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>58</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>59</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>60</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>62</v>
-      </c>
-      <c r="B45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>64</v>
       </c>
       <c r="B46" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>65</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>67</v>
       </c>
       <c r="B48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B49" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Sb-105"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/words list - Copy.xlsx
+++ b/words list - Copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Office\Python\Swiss Beauty Product Classification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE8072C-C163-4C9C-B379-B78089C615E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25792157-652A-447E-9DD9-9467FA799875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="103">
   <si>
     <t>cleansing active</t>
   </si>
@@ -233,6 +233,105 @@
   </si>
   <si>
     <t>exfoliqting</t>
+  </si>
+  <si>
+    <t>BUBBLE MASK</t>
+  </si>
+  <si>
+    <t>Iense Gel Kajal</t>
+  </si>
+  <si>
+    <t>EK14 Kajal</t>
+  </si>
+  <si>
+    <t>antioigeing</t>
+  </si>
+  <si>
+    <t>Iqvender</t>
+  </si>
+  <si>
+    <t>nnlt</t>
+  </si>
+  <si>
+    <t>peel off</t>
+  </si>
+  <si>
+    <t>pearigiow</t>
+  </si>
+  <si>
+    <t>sleleping</t>
+  </si>
+  <si>
+    <t>Sleeping Mask</t>
+  </si>
+  <si>
+    <t>sleeping</t>
+  </si>
+  <si>
+    <t>sleeping mask</t>
+  </si>
+  <si>
+    <t>sleepingmask</t>
+  </si>
+  <si>
+    <t>iAsMINE</t>
+  </si>
+  <si>
+    <t>Hand Cream</t>
+  </si>
+  <si>
+    <t>Ronantic</t>
+  </si>
+  <si>
+    <t>FLoRAL</t>
+  </si>
+  <si>
+    <t>Romantic</t>
+  </si>
+  <si>
+    <t>FLORAL</t>
+  </si>
+  <si>
+    <t>ROMANTIC</t>
+  </si>
+  <si>
+    <t>Floral</t>
+  </si>
+  <si>
+    <t>AMBER</t>
+  </si>
+  <si>
+    <t>Eyelashes</t>
+  </si>
+  <si>
+    <t>3D STUDIOEFFECT</t>
+  </si>
+  <si>
+    <t>eyelashes</t>
+  </si>
+  <si>
+    <t>EYSBRAW</t>
+  </si>
+  <si>
+    <t>Eyebrow Styling Gel</t>
+  </si>
+  <si>
+    <t>lotion</t>
+  </si>
+  <si>
+    <t>nightcream</t>
+  </si>
+  <si>
+    <t>Night Cream</t>
+  </si>
+  <si>
+    <t>daxcream</t>
+  </si>
+  <si>
+    <t>Day Cream</t>
+  </si>
+  <si>
+    <t>daycream</t>
   </si>
 </sst>
 </file>
@@ -256,12 +355,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -291,17 +396,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -635,19 +752,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -655,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -671,7 +788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -679,7 +796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -687,7 +804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -695,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -703,7 +820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -711,7 +828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -719,7 +836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -727,7 +844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -735,7 +852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -743,7 +860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -751,7 +868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -759,7 +876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -767,7 +884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -775,7 +892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -783,7 +900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -791,7 +908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -799,7 +916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -807,7 +924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -815,7 +932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -823,7 +940,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -831,7 +948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -839,7 +956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -847,7 +964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -855,7 +972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -863,7 +980,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -871,7 +988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -879,7 +996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -887,7 +1004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -895,7 +1012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -903,7 +1020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -911,7 +1028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -919,7 +1036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -927,7 +1044,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -935,7 +1052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -943,7 +1060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -951,7 +1068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -959,7 +1076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -967,7 +1084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -975,7 +1092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -983,7 +1100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -991,7 +1108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -999,7 +1116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -1007,7 +1124,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -1015,7 +1132,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -1023,7 +1140,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -1031,7 +1148,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -1039,7 +1156,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -1047,8 +1164,219 @@
         <v>66</v>
       </c>
     </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A51:A76">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>